--- a/sheets/selfcare.xlsx
+++ b/sheets/selfcare.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bottles-and-mugs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="trimmers" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -59,6 +60,22 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.tesco.com/groceries/en-GB/products/293686816?selectedUrl=https%3A%2F%2Fdigitalcontent.api.tesco.com%2Fv2%2Fmedia%2Fghs%2F24fc4f92-e8f1-43ac-ae31-5982ca9a0d97%2Fsnapshotimagehandler_970288483.jpeg%3Fh%3D540%26w%3D540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAHL Professional 5-Star Detailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Color-Pet/Animal Version 
+- Weight-0.24 Kilograms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0333/6993/products/DETAILER_3_1400x.jpg?v=1599946504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0333/6993/products/DETAILER_2_1400x.jpg?v=1599946504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://goshoppingmiami.com/products/wahl-detailer</t>
   </si>
 </sst>
 </file>
@@ -176,11 +193,11 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -308,4 +325,71 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/sheets/selfcare.xlsx
+++ b/sheets/selfcare.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bottles-and-mugs" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="trimmers" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="mirrors" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="skin-care" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -76,6 +78,38 @@
   </si>
   <si>
     <t xml:space="preserve">https://goshoppingmiami.com/products/wahl-detailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirror, stainless steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This 2-sided mirror can be placed wherever you need it. It has a regular mirror on one side and a magnifying mirror on the other - ideal for shaving, plucking eyebrows or putting on makeup.
+One side with magnifying mirror.
+Suitable for use in high humidity areas since it is water-resistant.
+Height: 13 "
+Diameter: 6 3/4 "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/trensum-mirror-stainless-steel__0637644_pe698434_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/trensum-mirror-stainless-steel__0864338_pe555944_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damatol Medicated Hair, Scalp &amp; Skin Treatment – 250g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damatol medicated is a special antiseptic formular for preventing hair damages, scalp infections such as hair dandruff, ringworm, itching, eczema, barbing infection, pimples, rashes, bumps and severe after shave. It also promotes hair growth.Ingredients:
+Petroleum jelly, mineral oil, lanolin, peppermint oil, coconut oil, menthol, sulphur and Damatol concentrate.
+- Fast hair growth
+- stop hair loss
+- no side effect Damatol is enriched with vitamin A and E. Smoothes, Soothe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shoponclick.ng/wp-content/uploads/2020/12/Damatol-Medicated-Hair-Scalp-Skin-Treatment-110g.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shoponclick.ng/product/damatol-medicated-hair-scalp-skin-treatment-110g/</t>
   </si>
 </sst>
 </file>
@@ -197,7 +231,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -334,8 +368,75 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -363,24 +464,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>800000</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/selfcare.xlsx
+++ b/sheets/selfcare.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="bottles-and-mugs" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="trimmers" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mirrors" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="skin-care" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="shavers" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="shave-creams" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -110,6 +112,41 @@
   </si>
   <si>
     <t xml:space="preserve">https://shoponclick.ng/product/damatol-medicated-hair-scalp-skin-treatment-110g/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gillette Blue 3 Simple Disposable Razors Men 5 Razors with Triple Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Gillette
+Number of blades:	3
+Units:	5 stück
+Number of items:	1
+Colour:	blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81p5K6A0AWL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71JUub4DLsL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/-/en/Gillette-Simple-Disposable-Razors-Triple/dp/B07D5SWNG7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECCO Easy Wipes Shoe Care Product, Transparent, 12 Pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color:	Transparent
+Brand:	ECCO
+Material:	cotton
+Item Weight:	10 Milligrams
+Fabric Type:	100% Leather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71HwFYsnjvL._AC_UY500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/ECCO-Wipes-Product-Transparent-Pieces/dp/B082B7FV76</t>
   </si>
 </sst>
 </file>
@@ -231,7 +268,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -372,7 +409,7 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -439,7 +476,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -465,16 +502,16 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -496,11 +533,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -526,16 +563,16 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -548,4 +585,108 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/sheets/selfcare.xlsx
+++ b/sheets/selfcare.xlsx
@@ -5,15 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="bottles-and-mugs" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="trimmers" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mirrors" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="skin-care" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="shavers" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="shavers-and-trimmers" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="shave-creams" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="shoe-care" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="other" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="kids" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="accessories" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -133,6 +137,84 @@
     <t xml:space="preserve">https://www.amazon.de/-/en/Gillette-Simple-Disposable-Razors-Triple/dp/B07D5SWNG7</t>
   </si>
   <si>
+    <t xml:space="preserve">WAHL Super Taper Clipper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most popular clipper in our collection and best sold among barbers and hairdressers. The Super Taper has a powerful V5000 engine and is designed to produce a greater shaving force all while cooling gradually. Which is why the Super Taper can cope easily with the demands of a busy barbershop and shave properly and consistently throughout the day.
+The versatile Super Taper Clipper features a high-quality chromed blade with screw system and cuts hair with ease. On the side is a handle that allows the cutting blade to be adjusted accurately for quick and easy adjustment of the cutting length without changing the blade!
+The WAHL Super Taper Clipper is designed to cool the device gradually during shaving. This ensures that the Super Taper can perform without any problems in every busy barber shop. Throughout the entire day!
+The V5000 engine rotates faster than a standard electromagnetic clipper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hairdressing.com.my/wp-content/uploads/2017/06/Wahl-Super-Taper-8466-02.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.webshopapp.com/shops/206855/files/126395285/image.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wahl.shop/en/wahl-hair-clipper-sper-taper.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahl Balding - 5 Star Series (Corded Clipper)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Balding Clipper
+The 5 Star Balding Clipper is a barbershop must-have. With a powerful electromagnetic vibrator motor that cuts twice the speed of pivot motors, the 5 Star Balding Clipper offers barbers and stylists a surgically-close cut, making it perfect for quick, precise, and effortless skin and bald fades. For your convenience, the 5-Star Balding Clipper comes with all accessories required for use. Package includes the clipper, (2) attachment combs, oil, cleaning brush, instructions, and red blade guard. This product features an 8-foot, professional grade, chemical resistant cord &amp; an electromagnetic / vibrator motor. Get the cleanest bald fades with this unique clipper by Wahl Professional!
+- Ultra-close full size trimming blade
+- Ideal for outlining
+- Creates all-over even cut with use of attachment combs
+- Full Head Balding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ng.jumia.is/unsafe/fit-in/680x680/filters:fill(white)/product/68/552164/3.jpg?9625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ng.jumia.is/unsafe/fit-in/680x680/filters:fill(white)/product/68/552164/2.jpg?9615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jumia.com.ng/wahl-balding-5-star-series-corded-clipper-46125586.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahl Detailer - 5 Star Series - Extra Wide T-Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 5 Star Detailer trimmer mains power with a light weight and excellent performance. It's as stylish a hair cutting tool as you could wish for, with a chrome and black casing with a deep red insert with glitter-effect detailing and the word "Detailer" written through it. It also now features the 5-Star branding etched into the chrome.
+It packs a powerful punch when it comes to performance too, with a rotary motor that makes light work of all trimming jobs and extra-wide T-shaped blades (6-mm wider than the standard blade) that can be easily adjusted to zero overlap for the closest possible cut, making it great for tattooing. All this, in a neat little trimmer that's just 13cm long and weighs a mere 190 grams!
+Power - Professional heavy-duty corded clipper, ideal for continual use.
+Professional - Professional Rotary Motor for durability and longevity
+Exact - Designed for all trimmer and blending work. Ideal for small hands.
+T-Blade - High Precision extra wide 38mm (6mm wider than Classic Detailer) This Blade adjusts to "0" Zero overlap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ng.jumia.is/unsafe/fit-in/680x680/filters:fill(white)/product/08/552164/1.jpg?8931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ng.jumia.is/unsafe/fit-in/680x680/filters:fill(white)/product/08/552164/3.jpg?0587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jumia.com.ng/wahl-detailer-5-star-series-extra-wide-t-blade-46125580.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King.C.Gillette – Transparent Shave Gel 150ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevent razor burn and experience a cooling sensation after shaving with the King C. Gillette Transparent Shave Gel, which features aloe vera and white tea extracts. 
+Use this refreshing shaving gel to hydrate dry skin before shaving for a more comfortable shave with less risk of post-shave irritation.  
+- Designed to help you to achieve your ideal facial hair style 
+- Contains mild lubricants to allow the razor to glide smoothly over your skin 
+- Creates a protective, anti-friction layer between the blade and your skin, providing protection from razor burn 
+- Easy to rinse off 
+- Formula features glycerine, as well as plant-based ingredients including aloe vera and white tea extract 
+- Scented with King C. Gillette’s signature fragrance, which features notes of patchouli, sandalwood, jasmine, peppermint and pink pepper to create a modern, masculine scent 
+- Comes in a 150ml tube </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vitabox.gr/images/thumbs/0006723_gilette-king-c-shave-gel-150ml_1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gillette.com.au/kingcgillette/transparent-shave-gel/</t>
+  </si>
+  <si>
     <t xml:space="preserve">ECCO Easy Wipes Shoe Care Product, Transparent, 12 Pieces</t>
   </si>
   <si>
@@ -147,6 +229,198 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/ECCO-Wipes-Product-Transparent-Pieces/dp/B082B7FV76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDO SHINES SHOE CREAM BLACK – 50G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specially formulated to nourish and protect smooth leathers Delivers superior shine
+Gender:	Unisex
+Article | Reference no.:	Driveway
+Type:	Shoe Cleaners
+Brand:	ALDO
+Color:	Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://d2z0lqci37nukm.cloudfront.net/media/catalog/product/cache/f5772ab7378eedee4ad2fc7d131c4075/d/r/driveway_black_001_main_sq_nt_2000x2000_vajsqb7gxpwkmivl.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://akgalleria.com/buy-5-driveway-ald-driveway-black-44151871.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDO SHINES SHOE CREAM DARK BROWN – 50G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specially formulated to nourish and protect smooth leathers Delivers superior shine
+Gender:	Unisex
+Article | Reference no.:	Driveway
+Type:	Shoe Cleaners
+Brand:	ALDO
+Color:	Dark Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://d2z0lqci37nukm.cloudfront.net/media/catalog/product/cache/f5772ab7378eedee4ad2fc7d131c4075/d/r/driveway_brown_201_main_sq_nt_2000x2000_uumi0byp7xow3blj.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://akgalleria.com/buy-10-driveway-ald-driveway-darkbrown-44151863.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDO Smooth Leather Cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium quality ALDO Unisex Smooth Leather Cleaner Neutral color
+Gender:	Unisex
+Type:	Shoe Cleaners
+Brand:	ALDO
+Color:	Neutral
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://d2z0lqci37nukm.cloudfront.net/media/catalog/product/cache/f5772ab7378eedee4ad2fc7d131c4075/a/l/ald-ss19-471_007-neutral_16_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://akgalleria.com/buy-5-smooth-leather-cleaner-ald-ss19-471-007-neutral.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDO SHINE LUSTRE – Black Shoe Polish Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAXY Black Shoe Polish Kit The black wax polish will provide a quick and bright shine! The brush can clean all types of shoes and helps to remove stains and spots. Also, comes with a cloth which is soft and durable!
+Gender:	Unisex
+Type:	Shoe Cleaners
+Brand:	ALDO
+Color:	Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://d2z0lqci37nukm.cloudfront.net/media/catalog/product/cache/f5772ab7378eedee4ad2fc7d131c4075/6/2/628155068135_1_pd2qnrswvbsvgusc.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://d2z0lqci37nukm.cloudfront.net/media/catalog/product/cache/5a319794f6868ce12b948b8c65d98dde/6/2/628155068135_13_zwah8rtit1jqpelp.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://akgalleria.com/buy-8-waxy-ald-waxy-16122475.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOVI Water Resistant Lotion – 71g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call It Spring Water Resistant Lotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cis-fashions.com/media/catalog/product/cache/1/image/dda06dd430b64170c3ae5a77a42de19f/C/a/Call_It_Spring_Water_Resistant_Lotion..jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cis-fashions.com/call-it-spring-water-resistant-lotion-wholesale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDO COMFORT CONFORT – Shoe stretching spray LINGARO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINGARO Shoe stretching spray. Works wonders for limited stretching. Enhances comfort &amp; fit for snug footwear.
+Brand: ALDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.migato.com/media/catalog/product/cache/e1e325e0f700e0d3de1a05bb19697e40/l/i/lingaro_no_colour_000_ma.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.migato.com/en/woman/bags-accessories/shoe-clean-care/shoe-stretching-spray-lingaro-00040247-un99.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDO SHINES ECLAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lint roller refill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the roll finished? Here you have 4 new ones, each containing 60 sticky sheets that remove fur hair, dust and lint from clothes, furniture and car seats. Fit BÄSTIS lint roller.
+Refill for BÄSTIS lint roller.
+Easily and quickly removes animal hairs, dust and fluff from garments, furniture and car seats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/baestis-lint-roller-refill__0711850_pe728519_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/p/baestis-lint-roller-refill-30141126/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lint roller, gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This lint roller has a whopping 40 sticky sheets that remove fur hair, dust and lint from clothes, furniture and car seats.
+Easily and quickly removes animal hairs, dust and lint from garments, furniture and car seats.
+Practical handle with hole; easy to hang up for storage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/baestis-lint-roller-gray__0654805_pe708843_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/baestis-lint-roller-gray-90425626/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trister Ionic Facial Sauna TS 587FS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trister's Ionic facial sauna combines a heating element with an ultrasonic vaporizer to produce visibly strong and consistent nano steam. The tiny nano ionic stream is up to 10 x more effective in penetrating the skin, supplementing moisture, and opening the pores to help cleanse the skin and remove blackheads.
+Features:
+Quick Facial Cleansing With Deep Moisturizing
+Leaves Your Skin Soft And Smooth
+Good For Steam Inhalation
+70ml Water Tank
+Auto Switch Off When Water Level Goes Down
+Power:280W
+Capacity:70ML
+Rate Voltage:220V
+Rated Frequency:60Hz
+Size:145*100*240mm
+Spare parts: Plug cord &amp; User manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://life-cdn.lifepharmacy.com/images/products/trister-ionic-facial-sauna-1024x1024.jpg?format=webp&amp;quality=85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://life-cdn.lifepharmacy.com/images/products/69519169_131354531502638_1866747834659917118_n-1024x1024.jpg?format=webp&amp;quality=85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lifepharmacy.com/sa-en/product/trister-ionic-facial-sauna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunveno - Travel USB Milk Bottle Warmer – Grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunveno Travel Milk Bottle Warmer with USB is a perfect for Mums while travelling, on a holiday or a day out with your baby. This bottle warmer outer material is made of velvet and very easy to use with the USB cable. 
+Can be connected to your Laptop, power bank or a Car charger. This Bottle warmer by SAM BOX maintains the temperature of the milk, food or water for the baby. For the mums who want to give expressed breast milk, this bottle warmer very handy - just keep the thawed milk in the bottle and plug in the warmer, when ever baby needs it, you can feed. Can be easily clubbed with Sunveno Diaper bag, as it has a USB interface, so can keep the bottle warmer in the side pocket or front bottle pocket and connect to keep the baby milk warm and handy!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.yallamums.com/image/cache/catalog/SN_MBW_GY/3-500x500.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.yallamums.com/image/cache/catalog/SN_MBW_GY/6-500x500.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.yallamums.com/sunveno-travel-usb-milk-bottle-warmer-grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eco-Friendly Cleaning Wipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENEFITS
+- Small size packing makes it convenient to carry
+- Wipes have all-natural contents and non-toxic composition
+USE
+- Removes dirt and salt stains on vegan textile and vegan leather in seconds
+- Protects against permanent damage
+INSTRUCTIONS
+- Remove wipe, unfold and wipe footwear thoroughly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.callitspring.com/v3/product/corwith/000/corwith_no%20colour_000_main_sq_wt_1000x1000.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.mall.adeptmind.ai/https%3A%2F%2Fmedia.callitspring.com%2Fv3%2Fproduct%2Fcorwith%2F000%2Fcorwith_no%20colour_000_alt3_sq_wt_4800x4800.jpg_large.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bramaleacitycentre.ca/theshoplist/product/eco-friendly-cleaning-wipes-no-colour-unisex-eco-shoe-care-call-it-spring-canada-callitspring-1a5703?model=0&amp;variant=0</t>
   </si>
 </sst>
 </file>
@@ -264,11 +538,11 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -294,7 +568,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="n">
+        <v>4910</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -398,6 +674,76 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4963</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -405,11 +751,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -434,7 +780,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4914</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -472,11 +821,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -502,6 +851,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4917</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
@@ -533,11 +885,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -592,13 +944,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -623,40 +975,121 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4922</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>90000</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4925</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="1" t="n">
+        <v>700000</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4928</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4931</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -673,14 +1106,580 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4933</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4935</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>4937</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4939</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4941</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>4944</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4945</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4947</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4948</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4951</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4954</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4955</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G103"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/sheets/selfcare.xlsx
+++ b/sheets/selfcare.xlsx
@@ -18,6 +18,7 @@
     <sheet name="other" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="kids" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="accessories" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="handbags" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="147">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -213,6 +214,22 @@
   </si>
   <si>
     <t xml:space="preserve">https://gillette.com.au/kingcgillette/transparent-shave-gel/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEACRET After Shave Balm for Men, Enriched with Minerals From The Dead Sea After Shave Lotion for Men, 5.1 FL OZ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightweight after-shave balm that helps soothe, moisturize and protect the skin. For all skin types. 
+Nurtures the skin. Easily absorbed, creamy texture. Leaves skin with a refreshing scent. Hypoallergenic tested. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/81jP49kdPrL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/61-c7NfBSgL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Seacret-Minerals-Dead-After-Shave/dp/B0050CZIFU</t>
   </si>
   <si>
     <t xml:space="preserve">ECCO Easy Wipes Shoe Care Product, Transparent, 12 Pieces</t>
@@ -401,6 +418,31 @@
     <t xml:space="preserve">https://www.yallamums.com/sunveno-travel-usb-milk-bottle-warmer-grey</t>
   </si>
   <si>
+    <t xml:space="preserve">Philips Avent Natural Baby Bottles, 260ml, Blue, 2-Pack, SCF035/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Style Name:260ml 2-Pack
+Colour Name:Blue
+Brand: 	Philips AVENT
+Colour: 	Blue
+Item weight: 	6.17 Ounces
+Capacity: 	260 Milliliters
+Bottle type: 	Anti-Colic Bottle
+- Easy to combine with breastfeeding due to natural latch on
+- Ultra-soft teat designed to mimic the feel of the breast
+- Anti-colic valve designed to reduce colic and discomfort
+- Flexible spiral design combined with comfort petals for a more natural feed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71cigPH4fjL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51Vfnfj2oDL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com.au/Philips-Avent-Natural-Bottles-Capacity/dp/B07GG5DSTT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eco-Friendly Cleaning Wipes</t>
   </si>
   <si>
@@ -421,6 +463,150 @@
   </si>
   <si>
     <t xml:space="preserve">https://bramaleacitycentre.ca/theshoplist/product/eco-friendly-cleaning-wipes-no-colour-unisex-eco-shoe-care-call-it-spring-canada-callitspring-1a5703?model=0&amp;variant=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunny Isle Jamaican Black Castor Oil Hair Food Pomade for Men, 4 Ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaican Black Castor Oil Hair Food Pomade Formulated Just for Men 4oz. This product is Manufactured in United States. This Product is Easy to use. Jamaican Black Castor Oil Hair Food Pomade Formulated Just for Men 4oz. 
+Product benefits: 	Strengthening, Breakage Control
+Hair type: 	Dry
+Scent: 	Coconut
+Liquid volume: 	4 Fluid Ounces
+Item form: 	Oil
+Brand: 	Sunny Isle
+Number of Items: 	1
+Unit count: 	113.3 gram
+Item volume: 	118 Milliliters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/71IeEh1FfqL._AC_SL1005_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/71Jhf5ioMVL._AC_SL1005_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/Sunny-Isle-Jamaican-Castor-Pomade/dp/B01CO49U28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kotex Maxi Normal Pads, 50 Sanitary Pads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Kotex Maxi with wings Provides superior absorption during flow .
+    - Dry touch core helps pull fluid into the pad quickly and speeds up absorption
+    - Prevents irritation and sweating unique cottony side cover that’s softer on all skin types
+    - Comfortable fit improved pad thickness that retains its shape
+    - Keeps you feeling dry film cover prevents fluid returning to the surface of the pad
+    - Designed for your comfort and softer than ever before
+    - Design and security of each pad provides around-the-clock protection, making you feel confident .
+    - The Pad has wings for better fit, flexibility and leak control.
+    - Natural Cotton feel top cover for unique Softness and Comfort
+    - Compressed and individually wrapped sanitary pads for ultimate protection
+    - It is developed in a way that locks moisture away for a leak free dryness.
+    - All kotex products present Natural Cotton feel top cover for unique Softness and Comfort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://aryamstore.com/wp-content/uploads/2022/02/71khVQdDsjL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://aryamstore.com/product/kotex-maxi-3d-normal-pads-50-sanitary-pads/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Body Shop Bath Gloves, Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Get even more of a lather with these textured bath mitts that exfoliate gently.... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71WMIwmZCtL._SL1287_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/91oYvOmZaHL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Body-Shop-Bath-Gloves-Natural/dp/B000HGJLL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Body Shop Bath Gloves, Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Get even more of a lather with these textured bath mitts that exfoliate gently.... 
+Color: 	Orange
+Brand: 	The Body Shop
+Product Dimensions: 	7.83"L x 5.51"W
+Number of Items: 	1
+Pattern: 	Solid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/91nS3ghd3kL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/A174swdD09L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Body-Shop-Bath-Gloves-Orange/dp/B000HGJLM0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Rug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown  Rug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wren Vanity Case, Pink Bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size: One Size
+Color: Berry
+Dimensions:
+7in. L x 3.5in. W x 4.5in. D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0267/3737/7324/products/NGQ121117-BERRY-WRENVANITYCASE-RZ_5000x.jpg?v=1631893462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ninewest.com/products/wren-vanity-case-in-berry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women's Vintage Style PU Leather Work Tote Large Shoulder Bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Material: Soft Greased PU Leather with polyester lining
+- Zipper top closure
+- Double top handles with one side can be adjusted
+- Also comes with a detachable long shoulder strap
+- One Front Pocket for quick access
+- The inside has 2 main compartments with a center zippered piece, 2 open pockets and a zipped pocket.
+- The bottom of the bag is protected by four metal rivets from abrasion
+- Dimension: 32cm x 26cm x 12cm
+- Durable and roomy for everyday use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dynamic.zacdn.com/dsOx2RqAjceiT0NR9F8Nvj3Keos=/fit-in/762x1100/filters:quality(95):fill(ffffff)/https://static-my.zacdn.com/p/a-frenz-1412-3641441-1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dynamic.zacdn.com/OfkDm1I280I4l907L0lZC5LKJ7k=/fit-in/762x1100/filters:quality(95):fill(ffffff)/https://static-my.zacdn.com/p/a-frenz-1413-3641441-5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zalora.com.my/a-frenz-women-s-vintage-style-pu-leather-work-tote-large-shoulder-bag-brown-1441463.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Purse With Zipper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLARINS – Cosmetic Bag - Clarins loves nature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://di2ponv0v5otw.cloudfront.net/posts/2023/01/27/63d464668d7a3c5af6af70e9/m_wp_63d4648802760b0bc7182a56.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://di2ponv0v5otw.cloudfront.net/posts/2023/01/27/63d464668d7a3c5af6af70e9/m_wp_63d4649aff0484908521fbfc.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://poshmark.com/listing/Cosmetic-Bag-Clarins-loves-nature-63d464668d7a3c5af6af70e9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey Handbag</t>
   </si>
 </sst>
 </file>
@@ -542,7 +728,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -679,13 +865,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -715,22 +901,224 @@
         <v>4963</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="61.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +1143,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -825,7 +1213,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -886,10 +1274,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -915,6 +1303,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>4919</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -950,7 +1341,7 @@
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1109,10 +1500,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1157,7 +1548,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1183,7 +1590,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1213,16 +1620,16 @@
         <v>4935</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1230,19 +1637,19 @@
         <v>4937</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>60000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1250,19 +1657,19 @@
         <v>4939</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>60000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1270,19 +1677,19 @@
         <v>4941</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>60000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1290,22 +1697,22 @@
         <v>4944</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>60000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1313,19 +1720,19 @@
         <v>4945</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1333,16 +1740,16 @@
         <v>4947</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1350,7 +1757,7 @@
         <v>4948</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1403,7 +1810,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1433,19 +1840,19 @@
         <v>4951</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>25000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1453,22 +1860,22 @@
         <v>4954</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>20000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1476,22 +1883,22 @@
         <v>4955</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1530,10 +1937,10 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1559,26 +1966,45 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>4958</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/sheets/selfcare.xlsx
+++ b/sheets/selfcare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="bottles-and-mugs" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="146">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -547,10 +547,7 @@
     <t xml:space="preserve">https://www.amazon.com/Body-Shop-Bath-Gloves-Orange/dp/B000HGJLM0</t>
   </si>
   <si>
-    <t xml:space="preserve">Brown Rug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brown  Rug</t>
+    <t xml:space="preserve">Prayer Mat</t>
   </si>
   <si>
     <t xml:space="preserve">Wren Vanity Case, Pink Bag</t>
@@ -728,7 +725,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -867,11 +864,11 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -920,6 +917,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5327</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>111</v>
       </c>
@@ -940,6 +940,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="61.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5329</v>
+      </c>
       <c r="B4" s="0" t="s">
         <v>116</v>
       </c>
@@ -957,6 +960,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5332</v>
+      </c>
       <c r="B5" s="0" t="s">
         <v>120</v>
       </c>
@@ -977,6 +983,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5335</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>125</v>
       </c>
@@ -997,11 +1006,14 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5336</v>
+      </c>
       <c r="B7" s="0" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>100000</v>
@@ -1025,11 +1037,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1054,71 +1066,86 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>5339</v>
+      </c>
       <c r="B2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5342</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5343</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5344</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5345</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1170,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1213,7 +1240,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1277,7 +1304,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1341,7 +1368,7 @@
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1500,10 +1527,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1549,6 +1576,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5321</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>48</v>
       </c>
@@ -1590,7 +1620,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1807,10 +1837,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1937,10 +1967,10 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1989,6 +2019,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5324</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>101</v>
       </c>

--- a/sheets/selfcare.xlsx
+++ b/sheets/selfcare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="bottles-and-mugs" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,8 @@
     <sheet name="kids" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="accessories" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="handbags" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="masks" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="gloves" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="156">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -604,6 +606,43 @@
   </si>
   <si>
     <t xml:space="preserve">Grey Handbag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Queen Nano Filter Face Mask Individually Packaged (40-Pack)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Air Queen
+Age Range (Description): 	Adult
+Filter Class: 	Nanofilter
+Size: 	40 Count (Pack of 1)
+Style: 	Earloop
+Closure Type: 	Ear Loop
+Reusability: 	Disposable
+Number of Items: 	1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/519rqbREUUS._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51MVAbxKRaS._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Air-Queen-Individually-Packaged-Homewell/dp/B08N8W32R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARDENA Gardening Gloves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The GARDENA Gardening Glove Small / Size 7 (202-20) and GARDENA Gardening Glove Medium / Size 8 (203-20) are the ultimate accessory for all kinds of work in the garden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lifestyle.co.za/wp-content/uploads/2020/12/203-20-Gardena-Gloves-Gardening-8-x-Medium-Packaging.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lifestyle.co.za/wp-content/uploads/2020/12/203-20-Gardena-Gloves-Gardening-8-x-Medium.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lifestyle.co.za/product/gardena-gardening-gloves/</t>
   </si>
 </sst>
 </file>
@@ -725,7 +764,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -868,7 +907,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1037,11 +1076,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1146,6 +1185,143 @@
       </c>
       <c r="C6" s="0" t="s">
         <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5507</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>5510</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1346,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1240,7 +1416,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1304,7 +1480,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1368,7 +1544,7 @@
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1530,7 +1706,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1620,7 +1796,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1840,7 +2016,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1970,7 +2146,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
